--- a/biology/Biochimie/Nucléotidase/Nucléotidase.xlsx
+++ b/biology/Biochimie/Nucléotidase/Nucléotidase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nucl%C3%A9otidase</t>
+          <t>Nucléotidase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une nucléotidase, ou nucléotide phosphatase, est une enzyme qui catalyse l'hydrolyse du groupe phosphate des nucléotides (ribonucléotides comme désoxyribonucléotides) en libérant le nucléoside correspondant. Ces enzymes participent à la dégradation des nucléotides. Elles sont présentes chez tous les êtres vivants.
 Il existe plusieurs types de nucléotidases selon leur mécanisme réactionnel. Les 5’-nucléosidases (EC 3.1.3.5) hydrolysent les groupes phosphate en position 5’ des nucléotides, tandis que les 3’-nucléosidases (EC 3.1.3.6) hydrolysent les groupes phosphate en position 3’ des ribonucléotides et des désoxyribonucléotides portant leur groupe phosphate en 3’, et que les phosphoadénylate-3’-nucléosidases (EC 3.1.3.7) clivent les groupes phosphate en position 3’ des nucléotides 3’,5’-bisphosphates. Le tableau ci-dessous présente des nucléotidases humaines :
